--- a/data/income_statement/2digits/size/51_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/51_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>51-Air transport</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>51-Air transport</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,290 +841,330 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>148555.13881</v>
+        <v>165139.56065</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>212491.57678</v>
+        <v>222195.74312</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>164133.12757</v>
+        <v>173608.00725</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>151239.4462</v>
+        <v>215263.36403</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>191028.22575</v>
+        <v>194880.70117</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>279882.99929</v>
+        <v>269654.52397</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>247187.12439</v>
+        <v>324527.90164</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>291765.59085</v>
+        <v>419285.0159</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>320829.90116</v>
+        <v>576004.3193999999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1644698.89737</v>
+        <v>1735785.77864</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1481905.8419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1584168.00011</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1939589.429</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>76870.77713</v>
+        <v>60864.88821</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>92771.75351000001</v>
+        <v>80392.25818</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>107038.55047</v>
+        <v>96837.03181999999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>90769.29227999999</v>
+        <v>126968.18645</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>67484.55012</v>
+        <v>90477.11065</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>159340.5512</v>
+        <v>167957.51123</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>129341.14583</v>
+        <v>174191.56236</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>204059.6748</v>
+        <v>277751.81204</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>175729.9407</v>
+        <v>316476.09153</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>584345.7161900001</v>
+        <v>687122.84237</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>595239.1952999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>715876.8786300001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>946068.52</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>69874.37617</v>
+        <v>103014.82064</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>116260.46935</v>
+        <v>134866.04323</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>52195.30034999999</v>
+        <v>68579.12411</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>57758.93440999999</v>
+        <v>78815.3648</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>116148.6357</v>
+        <v>96251.3927</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>92161.87357</v>
+        <v>68198.33877</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>112117.89384</v>
+        <v>121450.18208</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>83740.90256</v>
+        <v>116565.93301</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>135649.12175</v>
+        <v>211773.4567</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1001096.78944</v>
+        <v>993520.9579599999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>836767.9793199999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>808088.48307</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>927522.322</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1809.98551</v>
+        <v>1259.8518</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>3459.35392</v>
+        <v>6937.44171</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>4899.27675</v>
+        <v>8191.851320000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2711.21951</v>
+        <v>9479.81278</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>7395.03993</v>
+        <v>8152.19782</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>28380.57452</v>
+        <v>33498.67397</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>5728.08472</v>
+        <v>28886.1572</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>3965.01349</v>
+        <v>24967.27085</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>9450.83871</v>
+        <v>47754.77117</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>59256.39174</v>
+        <v>55141.97831000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>49898.66728</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>60202.63841</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>65998.587</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1069.28195</v>
+        <v>272.55572</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1168.17942</v>
+        <v>1808.15554</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1311.70295</v>
+        <v>1297.76384</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>413.37359</v>
+        <v>270.8809</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>831.76156</v>
+        <v>98.67669000000001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1148.24172</v>
+        <v>731.25667</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2670.60003</v>
+        <v>1987.26869</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>3863.28656</v>
+        <v>4040.71014</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>8198.03875</v>
+        <v>15963.76468</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>19613.10805</v>
+        <v>30030.82495</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>12455.44315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12645.0853</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>126493.642</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1064.12534</v>
+        <v>162.13201</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1167.54349</v>
+        <v>1725.23078</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1311.70295</v>
+        <v>1297.76384</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>406.58806</v>
+        <v>191.32187</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>804.98328</v>
+        <v>74.39963</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>805.52147</v>
+        <v>699.24279</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1511.15107</v>
+        <v>1948.81983</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2395.18753</v>
+        <v>2572.61111</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>7151.21129</v>
+        <v>14642.70247</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>19117.07438</v>
+        <v>29534.79128</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>11837.42141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>11651.28457</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>108800.904</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>0.63593</v>
+        <v>82.92475999999999</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>6.78553</v>
+        <v>58.52504</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>26.77828</v>
+        <v>24.27706</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>31.60825</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>485.77014</v>
+        <v>38.44886</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>1468.09903</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1046.82746</v>
+        <v>1312.71021</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>496.03367</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>615.76749</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>991.54648</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1736.267</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>5.15661</v>
+        <v>110.42371</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>0</v>
@@ -1232,22 +1173,22 @@
         <v>0</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>0</v>
+        <v>21.03399</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>311.112</v>
+        <v>0.40563</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>673.67882</v>
+        <v>0</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>0</v>
+        <v>8.352</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>0</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>2.25425</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>15956.471</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>147485.85686</v>
+        <v>164867.00493</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>211323.39736</v>
+        <v>220387.58758</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>162821.42462</v>
+        <v>172310.24341</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>150826.07261</v>
+        <v>214992.48313</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>190196.46419</v>
+        <v>194782.02448</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>278734.75757</v>
+        <v>268923.2673</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>244516.52436</v>
+        <v>322540.63295</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>287902.3042899999</v>
+        <v>415244.30576</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>312631.8624099999</v>
+        <v>560040.55472</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1625085.78932</v>
+        <v>1705754.95369</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1469450.39875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1571522.91481</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1813095.787</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>177448.04108</v>
+        <v>168407.87704</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>204851.34799</v>
+        <v>247839.4653</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>168804.41172</v>
+        <v>191213.6433</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>157430.90377</v>
+        <v>237587.84718</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>212200.81875</v>
+        <v>199501.49133</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>274810.31741</v>
+        <v>228974.98998</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>229903.05557</v>
+        <v>290481.0523</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>294770.74487</v>
+        <v>407965.02626</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>303957.0435</v>
+        <v>510446.93598</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1477128.19239</v>
+        <v>1488644.44618</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1316930.34528</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1343856.91136</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1594658.506</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1358,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>219.90717</v>
+        <v>151.61187</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>0</v>
@@ -1372,92 +1328,107 @@
       <c r="M15" s="48" t="n">
         <v>718.04252</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1054.1246</v>
+        <v>17243.4598</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>4038.58838</v>
+        <v>980.88437</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>9010.78494</v>
+        <v>4883.794879999999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>4441.383080000001</v>
+        <v>17845.58981</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1419.33927</v>
+        <v>4715.84121</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>991.8647099999999</v>
+        <v>996.39881</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>3400.42164</v>
+        <v>3485.50983</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>29.85872</v>
+        <v>7122.48881</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>23.48421</v>
+        <v>5.321569999999999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>21562.55425</v>
+        <v>32632.5503</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>9615.984359999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12342.33449</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>33258.63</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>176065.10317</v>
+        <v>151152.87008</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>200691.39699</v>
+        <v>246737.21831</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>159768.8049</v>
+        <v>186305.02654</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>152780.07141</v>
+        <v>219532.80809</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>210574.08874</v>
+        <v>194578.25938</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>269838.06366</v>
+        <v>227976.70177</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>226196.64249</v>
+        <v>286811.80444</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>294740.10249</v>
+        <v>393848.6909700001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>303932.65336</v>
+        <v>477821.90943</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1383127.5964</v>
+        <v>1383573.85414</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1300955.14033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1330796.53435</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1561167.323</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>328.81331</v>
+        <v>11.54716</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>121.36262</v>
@@ -1472,106 +1443,121 @@
         <v>0</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>3980.38904</v>
+        <v>1.8894</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>86.08427</v>
+        <v>32.12616</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>0.78366</v>
+        <v>6993.84648</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>0.9059299999999999</v>
+        <v>32619.70498</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>72310.69619</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>5641.17807</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>232.553</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>-29962.18422</v>
+        <v>-3540.87211</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>6472.04937</v>
+        <v>-27451.87772</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>-5982.9871</v>
+        <v>-18903.39989</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>-6604.83116</v>
+        <v>-22595.36405</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>-22004.35456</v>
+        <v>-4719.46685</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3924.44016</v>
+        <v>39948.27732</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>14613.46879</v>
+        <v>32059.58065</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>-6868.44058</v>
+        <v>7279.2795</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>8674.81891</v>
+        <v>49593.61874000001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>147957.59693</v>
+        <v>217110.50751</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>152520.05347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>227666.00345</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>218437.281</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>34103.54933</v>
+        <v>18723.50552</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>41268.9147</v>
+        <v>50920.56843</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>37441.8629</v>
+        <v>30136.26539</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>41384.42391</v>
+        <v>39851.59782</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>65370.41970000001</v>
+        <v>30068.87601</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>61862.49409</v>
+        <v>49143.55333</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>54335.15951</v>
+        <v>46624.15256</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>59343.55822</v>
+        <v>67792.3904</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>70204.67838</v>
+        <v>94973.96445</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>164521.18734</v>
+        <v>142826.3573</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>203113.43222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>192775.52154</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>200019.943</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1580,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>0</v>
+        <v>4465.31742</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>0</v>
@@ -1595,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>0</v>
+        <v>15936.42377</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>0</v>
@@ -1606,206 +1592,236 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1934.93039</v>
+        <v>1345.02815</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>4429.89697</v>
+        <v>3171.65424</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2781.97084</v>
+        <v>1147.26167</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1575.78116</v>
+        <v>1229.27455</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>4031.63315</v>
+        <v>1424.49552</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>5636.05937</v>
+        <v>4501.55003</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>8152.0777</v>
+        <v>4327.50947</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>9463.574689999999</v>
+        <v>5194.162679999999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>17048.2363</v>
+        <v>26239.74587</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>18655.56476</v>
+        <v>31586.96065</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>20377.47481</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>40536.09773</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>41462.979</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>32168.61894</v>
+        <v>17378.47737</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>36839.01773</v>
+        <v>47748.91419</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>34659.89206000001</v>
+        <v>24523.6863</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>39808.64275</v>
+        <v>38622.32327</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>61338.78655</v>
+        <v>28644.38049</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>56226.43472</v>
+        <v>44642.0033</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>46183.08181</v>
+        <v>42296.64309000001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>49879.98353</v>
+        <v>46661.80395</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>53156.44208000001</v>
+        <v>68734.21858</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>145855.67803</v>
+        <v>111229.4521</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>182735.95741</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>152239.42381</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>158556.964</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-64065.73355</v>
+        <v>-22264.37763</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-34796.86533</v>
+        <v>-78372.44615</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-43424.85</v>
+        <v>-49039.66528</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-47989.25507</v>
+        <v>-62446.96187</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-87374.77426000001</v>
+        <v>-34788.34286</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-57938.05393</v>
+        <v>-9195.27601</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-39721.69072</v>
+        <v>-14564.57191</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-66211.9988</v>
+        <v>-60513.1109</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-61529.85947</v>
+        <v>-45380.34571</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-16563.59041</v>
+        <v>74284.15020999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-50593.37875</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>34890.48190999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>18417.338</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>30663.38489</v>
+        <v>30859.93087</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>25259.56231</v>
+        <v>28603.01892</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>17177.15282</v>
+        <v>25914.31117</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>26088.78132</v>
+        <v>45480.56665</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>42823.63086</v>
+        <v>45198.69355</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>44618.32322999999</v>
+        <v>76847.83832</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>33985.88637</v>
+        <v>116381.33937</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>48820.89029</v>
+        <v>138609.70994</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>34137.14905</v>
+        <v>122439.07397</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>527984.04142</v>
+        <v>524643.8365399999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>227536.99802</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>188329.3305</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1073960.996</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>392.98107</v>
+        <v>200.40372</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>253.06009</v>
+        <v>0</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>655.67474</v>
+        <v>132.44057</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1.84002</v>
+        <v>4.20113</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>5.36404</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>626.05191</v>
+        <v>109.55353</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1.59165</v>
+        <v>10.51013</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>6215.683660000001</v>
+        <v>3.58367</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>0.00719</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>246.609</v>
+        <v>8.16479</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>28.46277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>14.02079</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1838,52 +1854,62 @@
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>16.14608</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.65</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>12395.21</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2710.99987</v>
+        <v>373.36871</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1200.20228</v>
+        <v>916.41603</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>276.85884</v>
+        <v>284.45689</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1037.35384</v>
+        <v>3600.58687</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2072.80329</v>
+        <v>2901.88019</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3004.25791</v>
+        <v>3919.16122</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>791.6067099999999</v>
+        <v>3708.50817</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>899.11748</v>
+        <v>6976.32633</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>967.85059</v>
+        <v>8349.550880000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>11656.09987</v>
+        <v>7270.56128</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>10354.15366</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>8645.906949999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>9089.188</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>87.39391999999999</v>
@@ -1895,7 +1921,7 @@
         <v>244.87566</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>0</v>
@@ -1904,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>0</v>
+        <v>76.0825</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>41.156</v>
+        <v>116.0535</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>95.78708</v>
@@ -1918,128 +1944,148 @@
       <c r="M29" s="48" t="n">
         <v>3471.94781</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>324.526</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>0.5</v>
+        <v>20.5</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>14.50998</v>
+        <v>0</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4.91554</v>
+        <v>0</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>21.70375</v>
+        <v>0</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>18.28035</v>
+        <v>0</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>0</v>
+        <v>332.4611</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>0</v>
+        <v>330.72032</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>656.81499</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3420.1819</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>747.0919</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>547.6849999999999</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>349.68857</v>
+        <v>0.16258</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1.74597</v>
+        <v>0.5445</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>12.8046</v>
+        <v>13.02425</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2.16552</v>
+        <v>3.95072</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1.09394</v>
+        <v>12274.64011</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>0.3896</v>
+        <v>0</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>441.16406</v>
+        <v>440.96247</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>0</v>
+        <v>61635.7847</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>0</v>
+        <v>421.30067</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>6.09797</v>
+        <v>0</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1.285</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>25561.36327</v>
+        <v>29410.78527</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>22956.01448</v>
+        <v>26793.45393</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>11403.93213</v>
+        <v>20755.99774</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>24975.99231</v>
+        <v>40571.88433</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>36407.27833</v>
+        <v>29984.10494</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>39252.47335</v>
+        <v>72157.54579999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>31387.0329</v>
+        <v>104693.16977</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>30039.60519</v>
+        <v>69358.16167</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>30723.07965</v>
+        <v>112001.41054</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>447268.7125</v>
+        <v>443019.78767</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>155409.22869</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>109501.01275</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>976520.903</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2066,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>0</v>
+        <v>47.97742</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1560.95819</v>
+        <v>787.81667</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>848.53949</v>
+        <v>887.60446</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>4582.50685</v>
+        <v>4463.01606</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>56.85965</v>
+        <v>1299.9436</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>4332.17572</v>
+        <v>32.70427</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1713.44671</v>
+        <v>661.57777</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1346.2107</v>
+        <v>7452.106330000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>11625.32796</v>
+        <v>187.33897</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2350.43173</v>
+        <v>1192.31987</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>64068.61180999999</v>
+        <v>69607.41253</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>54836.87711</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>65948.7003</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>75082.19899999999</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>18446.3604</v>
+        <v>27216.96825</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>19324.1526</v>
+        <v>26235.37533</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>22080.58167</v>
+        <v>59535.34831</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>21681.08134</v>
+        <v>32007.9822</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>71830.08873</v>
+        <v>41782.52211</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>60978.72629999999</v>
+        <v>80628.66623999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>46827.28104</v>
+        <v>151149.68877</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>30992.99631</v>
+        <v>135088.71061</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>36780.20761</v>
+        <v>152113.60497</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>525828.7410599999</v>
+        <v>582038.51928</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>256344.77669</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>237702.57439</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1327790.342</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2.59329</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>17.99086</v>
+        <v>536.9244100000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>0.25557</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>5136.09535</v>
+        <v>5131.00441</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>15.23401</v>
+        <v>5.73861</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>259.59397</v>
+        <v>150.96766</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>90.35472999999999</v>
+        <v>77.072</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1.64043</v>
+        <v>478.467</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>8.412369999999999</v>
+        <v>1879.22803</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>1559.13825</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>13.37318</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>27.005</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>28.133</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>152.42489</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>37.6506</v>
+        <v>16.6888</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>21.48026</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>75.83851</v>
+        <v>491.498</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>28.18818</v>
+        <v>0</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>18.26467</v>
+        <v>0</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>161.88109</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>0</v>
+        <v>527.7222399999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>20.8</v>
+        <v>973.0469300000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>8480.766900000001</v>
+        <v>6113.3619</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>9489.174590000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>9314.971810000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3369.757</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2285,16 +2361,16 @@
         <v>22.0846</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>2484.02804</v>
+        <v>0</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0</v>
+        <v>0.05237</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0</v>
+        <v>2165.42294</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>31167.16415</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>15670.21957</v>
+        <v>26525.46047</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>16471.51256</v>
+        <v>24346.3529</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>20296.44865</v>
+        <v>58386.85061</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>11058.66399</v>
+        <v>24360.18393</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>69469.77347</v>
+        <v>38517.21311</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>55313.2054</v>
+        <v>80436.05931</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>46544.8209</v>
+        <v>148486.2795</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>30968.29064</v>
+        <v>134043.8027</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>36658.00256</v>
+        <v>137883.15719</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>451501.33155</v>
+        <v>510213.86978</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>152985.09654</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>137887.77232</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1247722.824</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2621.12265</v>
+        <v>536.4896</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2180.0091</v>
+        <v>718.41974</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1740.31259</v>
+        <v>1104.67727</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2926.45545</v>
+        <v>2025.29586</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2316.89307</v>
+        <v>3259.51802</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5387.66226</v>
+        <v>41.63927</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>30.22432</v>
+        <v>259.03324</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>23.06524</v>
+        <v>38.71867</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>92.99267999999999</v>
+        <v>11378.17282</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>64287.50436</v>
+        <v>64152.14934999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>62689.96823000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>59305.66111000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>76669.628</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>12611.2204</v>
+        <v>7674.52856</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>17634.36059</v>
+        <v>8099.551570000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>30223.88282</v>
+        <v>14622.97669</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>8626.62566</v>
+        <v>14137.51858</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>18568.8848</v>
+        <v>14270.39087</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>19948.54252</v>
+        <v>25545.368</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>15594.24804</v>
+        <v>32514.94511</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>17253.26219</v>
+        <v>54998.44717</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>17540.98042</v>
+        <v>67489.42249</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>106453.61164</v>
+        <v>133761.84993</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>58877.21278</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>64941.01272</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>84897.88099999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4449.244610000001</v>
+        <v>6732.705099999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>10718.49839</v>
+        <v>5901.366099999999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>17906.68097</v>
+        <v>11585.64418</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>6930.18513</v>
+        <v>12484.7663</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>11793.05206</v>
+        <v>13188.34927</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>15413.75625</v>
+        <v>18196.79903</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>5112.06807</v>
+        <v>21276.79085</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>13723.92158</v>
+        <v>50204.28885</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>17411.11427</v>
+        <v>53618.79139</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>106139.20984</v>
+        <v>127957.07223</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>58839.26867</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>58614.35604999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>84774.27</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>8161.97579</v>
+        <v>941.82346</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>6915.8622</v>
+        <v>2198.18547</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>12317.20185</v>
+        <v>3037.33251</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1696.44053</v>
+        <v>1652.75228</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>6775.83274</v>
+        <v>1082.0416</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4534.78627</v>
+        <v>7348.568969999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>10482.17997</v>
+        <v>11238.15426</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>3529.34061</v>
+        <v>4794.15832</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>129.86615</v>
+        <v>13870.6311</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>314.4018</v>
+        <v>5804.777700000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>37.94411</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>6326.65667</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>123.611</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-64459.92946</v>
+        <v>-26295.94357</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-46495.81621</v>
+        <v>-84104.35412999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-78552.16167</v>
+        <v>-97283.67911</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-52208.18075</v>
+        <v>-63111.896</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-134950.11693</v>
+        <v>-45642.56229</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-94246.99952</v>
+        <v>-38521.47193</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-68157.33343000001</v>
+        <v>-81847.86642000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-65637.36701</v>
+        <v>-111990.55874</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-81713.89844999999</v>
+        <v>-142544.2992</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-120861.90169</v>
+        <v>-116872.38246</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-138278.3702</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-79423.77470000002</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-320309.889</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>9844.306560000001</v>
+        <v>7173.59648</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>12021.51939</v>
+        <v>1836.52653</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1789.00139</v>
+        <v>1555.9544</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>11013.80273</v>
+        <v>6285.41529</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>10638.23347</v>
+        <v>1546.58035</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>12748.98205</v>
+        <v>9034.839619999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3126.88757</v>
+        <v>30999.21413</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5512.373269999999</v>
+        <v>84790.59753</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>14204.16481</v>
+        <v>82002.96342</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>25948.59959</v>
+        <v>58369.63677</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>84597.71713</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>42610.85598000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>64921.55</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>22.85058</v>
+        <v>97.53249000000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2.84127</v>
+        <v>10.36505</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>12.1497</v>
+        <v>47.3746</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>4.54797</v>
+        <v>22.07269</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>0</v>
+        <v>79.68092</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>0.96285</v>
+        <v>0.673</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>0.33304</v>
+        <v>49.5582</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>83.8505</v>
+        <v>324.81718</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>171.61114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1741.89581</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1193.336</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>9844.306560000001</v>
+        <v>7173.59648</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>11998.66881</v>
+        <v>1738.99404</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1786.16012</v>
+        <v>1545.58935</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>11001.65303</v>
+        <v>6238.040690000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>10638.23347</v>
+        <v>1546.58035</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>12744.43408</v>
+        <v>9012.76693</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3126.88757</v>
+        <v>30919.53321</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5511.41042</v>
+        <v>84789.92453</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>14203.83177</v>
+        <v>81953.40522</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>25864.74909</v>
+        <v>58044.81959</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>84426.10599000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>40868.96017</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>63728.214</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4378.06991</v>
+        <v>3270.1919</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3643.51455</v>
+        <v>5666.11354</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>4208.76648</v>
+        <v>2085.84046</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>4398.077179999999</v>
+        <v>12915.51232</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>14764.42607</v>
+        <v>1326.7727</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>12962.72664</v>
+        <v>14505.05414</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>16446.27955</v>
+        <v>35552.82793</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>22791.65817</v>
+        <v>54581.01411</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>13732.63878</v>
+        <v>59860.19078</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>72309.39391</v>
+        <v>44778.27701</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>21677.68422</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>23193.97003</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>38735.445</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>0</v>
+        <v>0.1074</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>395.64326</v>
+        <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1670.21524</v>
+        <v>3.0498</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1928.47042</v>
+        <v>9347.24367</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2867.35474</v>
+        <v>293.12975</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>3317.13227</v>
+        <v>8341.36441</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3557.91205</v>
+        <v>11635.30562</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>6004.60787</v>
+        <v>22820.67853</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>8494.688900000001</v>
+        <v>9384.596099999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>7733.9694</v>
+        <v>7731.85011</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>4180.91633</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4179.094950000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>6922.575</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>715.73366</v>
+        <v>2851.63325</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1189.59121</v>
+        <v>1428.45848</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>32.34228</v>
+        <v>17.24438</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>28.06065</v>
+        <v>1116.22867</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>15.92404</v>
+        <v>79.37785000000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>186.16377</v>
+        <v>76.13177999999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>241.20202</v>
+        <v>287.82036</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>830.17903</v>
+        <v>921.2840699999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>51.57702</v>
+        <v>68.77556</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1947.59777</v>
+        <v>392.94011</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>778.7194300000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8256.060390000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3609.37</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3662.33625</v>
+        <v>418.45125</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>2058.28008</v>
+        <v>4237.655059999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2506.20896</v>
+        <v>2065.54628</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2441.54611</v>
+        <v>2452.03998</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>11881.14729</v>
+        <v>954.2651</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>9459.4306</v>
+        <v>6087.55795</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>12647.16548</v>
+        <v>23629.70195</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>15956.87127</v>
+        <v>30839.05151</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>5186.37286</v>
+        <v>50406.81912</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>62627.82674</v>
+        <v>36653.48679</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>16718.04846</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>10758.81469</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>28203.5</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-58993.69281</v>
+        <v>-22392.53899</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-38117.81137</v>
+        <v>-87933.94114</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-80971.92676</v>
+        <v>-97813.56517</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-45592.4552</v>
+        <v>-69741.99303</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-139076.30953</v>
+        <v>-45422.75464</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-94460.74411</v>
+        <v>-43991.68645</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-81476.72541</v>
+        <v>-86401.48022</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-82916.65191000002</v>
+        <v>-81780.97532</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-81242.37242</v>
+        <v>-120401.52656</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-167222.69601</v>
+        <v>-103281.0227</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-75358.33729</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-60006.88875</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-294123.784</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>571.26951</v>
+        <v>486.59511</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>792.68571</v>
+        <v>642.52084</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>700.5785100000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>445.54896</v>
+        <v>405.15644</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>223.61828</v>
+        <v>322.66505</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>2804.01164</v>
+        <v>2042.70394</v>
       </c>
       <c r="I56" s="47" t="n">
         <v>669.39735</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3171.17856</v>
+        <v>1656.23663</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1203.82382</v>
+        <v>1391.15571</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>8143.05779</v>
+        <v>5122.346890000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>21152.70532</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>11538.15489</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>8478.555</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-59564.96232</v>
+        <v>-22879.1341</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-38910.49708</v>
+        <v>-88576.46198000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-81672.50527000001</v>
+        <v>-98514.14368000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-46038.00416</v>
+        <v>-70147.14947</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-139299.92781</v>
+        <v>-45745.41969</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-97264.75575</v>
+        <v>-46034.39039</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-82146.12276</v>
+        <v>-87070.87757</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-86087.83047</v>
+        <v>-83437.21195</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-82446.19624</v>
+        <v>-121792.68227</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-175365.7538</v>
+        <v>-108403.36959</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-96511.04260999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-71545.04364</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-302602.339</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>